--- a/techniqo/data_new_ticker/HUDCO.xlsx
+++ b/techniqo/data_new_ticker/HUDCO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G824"/>
+  <dimension ref="A1:G826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29226,6 +29226,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C825" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="D825" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E825" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="F825" t="n">
+        <v>1429673</v>
+      </c>
+      <c r="G825" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C826" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D826" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E826" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F826" t="n">
+        <v>863684</v>
+      </c>
+      <c r="G826" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/HUDCO.xlsx
+++ b/techniqo/data_new_ticker/HUDCO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G826"/>
+  <dimension ref="A1:G828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29276,6 +29276,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="C827" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D827" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="E827" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="F827" t="n">
+        <v>1019660</v>
+      </c>
+      <c r="G827" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C828" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D828" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E828" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F828" t="n">
+        <v>1975000</v>
+      </c>
+      <c r="G828" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
